--- a/data/业务流程/1在职-正常-导入1人数据.xlsx
+++ b/data/业务流程/1在职-正常-导入1人数据.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
   <si>
     <t>1.0</t>
   </si>
@@ -187,7 +187,7 @@
     <t>证件号码⑦</t>
   </si>
   <si>
-    <t>山风雨来花语是</t>
+    <t>黃名悅</t>
   </si>
   <si>
     <t>男</t>
@@ -196,7 +196,7 @@
     <t>身份证</t>
   </si>
   <si>
-    <t>431225198903109791</t>
+    <t>43122519890310283X</t>
   </si>
   <si>
     <t>本科</t>
@@ -217,7 +217,7 @@
     <t>姓名为空</t>
   </si>
   <si>
-    <t>00008644000000002020012061</t>
+    <t>00008644000000002020012064</t>
   </si>
   <si>
     <t>440085140</t>
@@ -499,10 +499,10 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;￥&quot;\ * #,##0_-;\-&quot;￥&quot;\ * #,##0_-;_-&quot;￥&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;￥&quot;\ * #,##0.00_-;\-&quot;￥&quot;\ * #,##0.00_-;_-&quot;￥&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;￥&quot;\ * #,##0.00_-;\-&quot;￥&quot;\ * #,##0.00_-;_-&quot;￥&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -585,6 +585,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
@@ -593,6 +650,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
@@ -617,37 +696,9 @@
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -661,21 +712,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -700,44 +736,14 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -782,181 +788,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,34 +1055,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,16 +1085,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1125,8 +1131,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,8 +1140,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1143,59 +1149,59 @@
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1312,6 +1318,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1726,10 +1733,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL10"/>
+  <dimension ref="A1:AL18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="N6" sqref="E6 N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="12"/>
@@ -1865,41 +1872,41 @@
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41" t="s">
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="43" t="s">
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
     </row>
     <row r="4" s="24" customFormat="1" ht="20.1" customHeight="1" spans="1:38">
       <c r="A4" s="30"/>
@@ -1911,49 +1918,49 @@
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="44" t="s">
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44" t="s">
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44" t="s">
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44" t="s">
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44" t="s">
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44" t="s">
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44" t="s">
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="45"/>
+      <c r="AJ4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
+      <c r="AK4" s="45"/>
+      <c r="AL4" s="45"/>
     </row>
     <row r="5" s="25" customFormat="1" ht="20" customHeight="1" spans="1:38">
       <c r="A5" s="23" t="s">
@@ -1986,13 +1993,13 @@
       <c r="J5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="L5" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="42" t="s">
+      <c r="M5" s="43" t="s">
         <v>25</v>
       </c>
       <c r="N5" s="32" t="s">
@@ -2119,27 +2126,27 @@
       <c r="Q6" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="45"/>
-      <c r="AH6" s="45"/>
-      <c r="AI6" s="45"/>
-      <c r="AJ6" s="45"/>
-      <c r="AK6" s="45"/>
-      <c r="AL6" s="45"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="46"/>
+      <c r="AI6" s="46"/>
+      <c r="AJ6" s="46"/>
+      <c r="AK6" s="46"/>
+      <c r="AL6" s="46"/>
     </row>
     <row r="7" s="26" customFormat="1" ht="24" customHeight="1" spans="1:17">
       <c r="A7" s="38" t="s">
@@ -2266,6 +2273,19 @@
       <c r="AE10" s="39"/>
       <c r="AF10" s="39"/>
     </row>
+    <row r="16" ht="14.25" spans="5:5">
+      <c r="E16" s="40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="5:5">
+      <c r="E17" s="40"/>
+    </row>
+    <row r="18" ht="14.25" spans="5:5">
+      <c r="E18" s="40">
+        <v>8.64400000000202e+21</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A1:AL1"/>
@@ -2285,26 +2305,26 @@
     <mergeCell ref="A8:AF10"/>
   </mergeCells>
   <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 S6 V6 Y6 AB6 AE6 AH6 AK6">
+      <formula1>"身份证,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
       <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6">
+      <formula1>"代理合同,劳动合同,劳务派遣,非全日制用工"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6">
       <formula1>"初中以下学历,初中及同等学历,高中及同等学历,大专,本科,硕士,博士"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 S6 V6 Y6 AB6 AE6 AH6 AK6">
-      <formula1>"身份证,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6">
-      <formula1>"广东,北京,天津,河北,山西,内蒙古,辽宁,吉林,黑龙江,上海,江苏,浙江,安徽,福建,江西,山东,河南,湖北,湖南,广西,海南,重庆,四川,贵州,云南,西藏,陕西,甘肃,青海,宁夏,新疆,台湾,香港,澳门,外籍或其他"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6">
+      <formula1>"山东省,山东省济南市,山东省淄博市,山东省枣庄市,山东省东营市,山东省烟台市,山东省潍坊市,山东省济宁市,山东省泰安市,山东省威海市,山东省日照市,山东省滨州市,山东省德州市,山东省聊城市,山东省临沂市,山东省菏泽市"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6">
       <formula1>"个险营销,银保,团险,电销,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6">
-      <formula1>"代理合同,劳动合同,劳务派遣,非全日制用工"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6">
-      <formula1>"山东省,山东省济南市,山东省淄博市,山东省枣庄市,山东省东营市,山东省烟台市,山东省潍坊市,山东省济宁市,山东省泰安市,山东省威海市,山东省日照市,山东省滨州市,山东省德州市,山东省聊城市,山东省临沂市,山东省菏泽市"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6">
+      <formula1>"广东,北京,天津,河北,山西,内蒙古,辽宁,吉林,黑龙江,上海,江苏,浙江,安徽,福建,江西,山东,河南,湖北,湖南,广西,海南,重庆,四川,贵州,云南,西藏,陕西,甘肃,青海,宁夏,新疆,台湾,香港,澳门,外籍或其他"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>

--- a/data/业务流程/1在职-正常-导入1人数据.xlsx
+++ b/data/业务流程/1在职-正常-导入1人数据.xlsx
@@ -196,7 +196,7 @@
     <t>身份证</t>
   </si>
   <si>
-    <t>43122519890310283X</t>
+    <t>431225198903109919</t>
   </si>
   <si>
     <t>本科</t>
@@ -217,7 +217,7 @@
     <t>姓名为空</t>
   </si>
   <si>
-    <t>00008644000000002020012064</t>
+    <t>00008644000000002020012065</t>
   </si>
   <si>
     <t>440085140</t>
@@ -497,12 +497,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;￥&quot;\ * #,##0.00_-;\-&quot;￥&quot;\ * #,##0.00_-;_-&quot;￥&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;￥&quot;\ * #,##0_-;\-&quot;￥&quot;\ * #,##0_-;_-&quot;￥&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;￥&quot;\ * #,##0.00_-;\-&quot;￥&quot;\ * #,##0.00_-;_-&quot;￥&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="38">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -585,6 +585,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFA9B7C6"/>
       <name val="宋体"/>
@@ -592,7 +599,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFA9B7C6"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -606,14 +613,15 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -621,6 +629,59 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -636,7 +697,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -651,22 +712,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -681,22 +727,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -704,24 +734,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -788,13 +802,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,55 +940,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,103 +976,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,17 +1053,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1065,6 +1073,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,101 +1159,63 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1306,19 +1320,22 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1328,6 +1345,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1336,6 +1356,12 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1733,10 +1759,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL18"/>
+  <dimension ref="A1:AL24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="E6 N6"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="12"/>
@@ -1872,41 +1898,41 @@
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42" t="s">
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="44" t="s">
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="46"/>
     </row>
     <row r="4" s="24" customFormat="1" ht="20.1" customHeight="1" spans="1:38">
       <c r="A4" s="30"/>
@@ -1918,49 +1944,49 @@
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="45" t="s">
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45" t="s">
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45" t="s">
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45" t="s">
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45" t="s">
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45" t="s">
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="45" t="s">
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="AK4" s="45"/>
-      <c r="AL4" s="45"/>
+      <c r="AK4" s="47"/>
+      <c r="AL4" s="47"/>
     </row>
     <row r="5" s="25" customFormat="1" ht="20" customHeight="1" spans="1:38">
       <c r="A5" s="23" t="s">
@@ -1993,13 +2019,13 @@
       <c r="J5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="43" t="s">
+      <c r="L5" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="43" t="s">
+      <c r="M5" s="44" t="s">
         <v>25</v>
       </c>
       <c r="N5" s="32" t="s">
@@ -2091,18 +2117,18 @@
       <c r="D6" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="49" t="s">
         <v>54</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36" t="s">
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J6" s="38" t="s">
         <v>57</v>
       </c>
       <c r="K6" s="35" t="s">
@@ -2114,178 +2140,179 @@
       <c r="M6" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="36" t="s">
+      <c r="N6" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="O6" s="36" t="s">
+      <c r="O6" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="36" t="s">
+      <c r="P6" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="36" t="s">
+      <c r="Q6" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="46"/>
-      <c r="AI6" s="46"/>
-      <c r="AJ6" s="46"/>
-      <c r="AK6" s="46"/>
-      <c r="AL6" s="46"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="48"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="48"/>
+      <c r="AK6" s="48"/>
+      <c r="AL6" s="48"/>
     </row>
     <row r="7" s="26" customFormat="1" ht="24" customHeight="1" spans="1:17">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
     </row>
     <row r="8" s="26" customFormat="1" ht="33" customHeight="1" spans="1:32">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
     </row>
     <row r="9" s="26" customFormat="1" ht="33" customHeight="1" spans="1:32">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
     </row>
     <row r="10" s="26" customFormat="1" ht="51" customHeight="1" spans="1:32">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="39"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40"/>
     </row>
     <row r="16" ht="14.25" spans="5:5">
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="41" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="5:5">
-      <c r="E17" s="40"/>
+      <c r="E17" s="41"/>
     </row>
     <row r="18" ht="14.25" spans="5:5">
-      <c r="E18" s="40">
+      <c r="E18" s="41">
         <v>8.64400000000202e+21</v>
       </c>
     </row>
+    <row r="24" ht="57"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A1:AL1"/>
@@ -2305,26 +2332,26 @@
     <mergeCell ref="A8:AF10"/>
   </mergeCells>
   <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+      <formula1>"男,女"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 S6 V6 Y6 AB6 AE6 AH6 AK6">
       <formula1>"身份证,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"男,女"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6">
       <formula1>"代理合同,劳动合同,劳务派遣,非全日制用工"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6">
+      <formula1>"广东,北京,天津,河北,山西,内蒙古,辽宁,吉林,黑龙江,上海,江苏,浙江,安徽,福建,江西,山东,河南,湖北,湖南,广西,海南,重庆,四川,贵州,云南,西藏,陕西,甘肃,青海,宁夏,新疆,台湾,香港,澳门,外籍或其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6">
       <formula1>"初中以下学历,初中及同等学历,高中及同等学历,大专,本科,硕士,博士"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6">
-      <formula1>"山东省,山东省济南市,山东省淄博市,山东省枣庄市,山东省东营市,山东省烟台市,山东省潍坊市,山东省济宁市,山东省泰安市,山东省威海市,山东省日照市,山东省滨州市,山东省德州市,山东省聊城市,山东省临沂市,山东省菏泽市"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6">
       <formula1>"个险营销,银保,团险,电销,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6">
-      <formula1>"广东,北京,天津,河北,山西,内蒙古,辽宁,吉林,黑龙江,上海,江苏,浙江,安徽,福建,江西,山东,河南,湖北,湖南,广西,海南,重庆,四川,贵州,云南,西藏,陕西,甘肃,青海,宁夏,新疆,台湾,香港,澳门,外籍或其他"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6">
+      <formula1>"山东省,山东省济南市,山东省淄博市,山东省枣庄市,山东省东营市,山东省烟台市,山东省潍坊市,山东省济宁市,山东省泰安市,山东省威海市,山东省日照市,山东省滨州市,山东省德州市,山东省聊城市,山东省临沂市,山东省菏泽市"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>

--- a/data/业务流程/1在职-正常-导入1人数据.xlsx
+++ b/data/业务流程/1在职-正常-导入1人数据.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="94">
   <si>
     <t>1.0</t>
   </si>
@@ -196,7 +196,7 @@
     <t>身份证</t>
   </si>
   <si>
-    <t>431225198903109919</t>
+    <t>431225198903107614</t>
   </si>
   <si>
     <t>本科</t>
@@ -205,7 +205,7 @@
     <t>山西</t>
   </si>
   <si>
-    <t>中国太平洋人寿山东分公司济南市中心支公司</t>
+    <t>太平洋人寿山东分公司济南市中心支公司</t>
   </si>
   <si>
     <t>个险营销</t>
@@ -497,9 +497,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;￥&quot;\ * #,##0.00_-;\-&quot;￥&quot;\ * #,##0.00_-;_-&quot;￥&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;￥&quot;\ * #,##0_-;\-&quot;￥&quot;\ * #,##0_-;_-&quot;￥&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;￥&quot;\ * #,##0_-;\-&quot;￥&quot;\ * #,##0_-;_-&quot;￥&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;￥&quot;\ * #,##0.00_-;\-&quot;￥&quot;\ * #,##0.00_-;_-&quot;￥&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="38">
@@ -613,7 +613,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -627,8 +627,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -643,61 +705,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -711,8 +719,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -726,14 +735,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -741,9 +742,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -802,72 +802,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -880,103 +958,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,11 +1053,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,15 +1121,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1121,17 +1136,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1150,70 +1159,61 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1759,10 +1759,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL24"/>
+  <dimension ref="A1:AL18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="12"/>
@@ -2300,19 +2300,14 @@
       <c r="AF10" s="40"/>
     </row>
     <row r="16" ht="14.25" spans="5:5">
-      <c r="E16" s="41" t="s">
-        <v>51</v>
-      </c>
+      <c r="E16" s="41"/>
     </row>
     <row r="17" ht="14.25" spans="5:5">
       <c r="E17" s="41"/>
     </row>
     <row r="18" ht="14.25" spans="5:5">
-      <c r="E18" s="41">
-        <v>8.64400000000202e+21</v>
-      </c>
-    </row>
-    <row r="24" ht="57"/>
+      <c r="E18" s="41"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A1:AL1"/>
@@ -2332,26 +2327,26 @@
     <mergeCell ref="A8:AF10"/>
   </mergeCells>
   <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6">
+      <formula1>"山东省,山东省济南市,山东省淄博市,山东省枣庄市,山东省东营市,山东省烟台市,山东省潍坊市,山东省济宁市,山东省泰安市,山东省威海市,山东省日照市,山东省滨州市,山东省德州市,山东省聊城市,山东省临沂市,山东省菏泽市"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6">
+      <formula1>"初中以下学历,初中及同等学历,高中及同等学历,大专,本科,硕士,博士"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
       <formula1>"男,女"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 S6 V6 Y6 AB6 AE6 AH6 AK6">
       <formula1>"身份证,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6">
-      <formula1>"代理合同,劳动合同,劳务派遣,非全日制用工"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6">
       <formula1>"广东,北京,天津,河北,山西,内蒙古,辽宁,吉林,黑龙江,上海,江苏,浙江,安徽,福建,江西,山东,河南,湖北,湖南,广西,海南,重庆,四川,贵州,云南,西藏,陕西,甘肃,青海,宁夏,新疆,台湾,香港,澳门,外籍或其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6">
-      <formula1>"初中以下学历,初中及同等学历,高中及同等学历,大专,本科,硕士,博士"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6">
       <formula1>"个险营销,银保,团险,电销,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6">
-      <formula1>"山东省,山东省济南市,山东省淄博市,山东省枣庄市,山东省东营市,山东省烟台市,山东省潍坊市,山东省济宁市,山东省泰安市,山东省威海市,山东省日照市,山东省滨州市,山东省德州市,山东省聊城市,山东省临沂市,山东省菏泽市"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6">
+      <formula1>"代理合同,劳动合同,劳务派遣,非全日制用工"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>

--- a/data/业务流程/1在职-正常-导入1人数据.xlsx
+++ b/data/业务流程/1在职-正常-导入1人数据.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="97">
   <si>
     <t>1.0</t>
   </si>
@@ -196,13 +196,16 @@
     <t>身份证</t>
   </si>
   <si>
-    <t>431225198903107614</t>
+    <t>431225198903101458</t>
   </si>
   <si>
     <t>本科</t>
   </si>
   <si>
-    <t>山西</t>
+    <t>1990/03/07</t>
+  </si>
+  <si>
+    <t>广西</t>
   </si>
   <si>
     <t>太平洋人寿山东分公司济南市中心支公司</t>
@@ -214,10 +217,10 @@
     <t>代理合同</t>
   </si>
   <si>
-    <t>姓名为空</t>
-  </si>
-  <si>
-    <t>00008644000000002020012065</t>
+    <t>员工</t>
+  </si>
+  <si>
+    <t>00008644000000002020012068</t>
   </si>
   <si>
     <t>440085140</t>
@@ -226,7 +229,13 @@
     <t>山东省</t>
   </si>
   <si>
-    <t>2021/1/1</t>
+    <t>2021/03/07</t>
+  </si>
+  <si>
+    <t>黄武</t>
+  </si>
+  <si>
+    <t>370102197010171192</t>
   </si>
   <si>
     <t>End Mark(结束标记，勿删除)</t>
@@ -497,12 +506,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;￥&quot;\ * #,##0_-;\-&quot;￥&quot;\ * #,##0_-;_-&quot;￥&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;￥&quot;\ * #,##0_-;\-&quot;￥&quot;\ * #,##0_-;_-&quot;￥&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;￥&quot;\ * #,##0.00_-;\-&quot;￥&quot;\ * #,##0.00_-;_-&quot;￥&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -585,26 +594,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -612,8 +601,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -628,115 +724,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -802,19 +791,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,157 +953,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,60 +1043,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,6 +1081,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1145,77 +1129,82 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1320,22 +1309,18 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1345,23 +1330,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1487,10 +1463,10 @@
       <color rgb="00FF0000"/>
       <color rgb="00DD0806"/>
       <color rgb="0000B050"/>
+      <color rgb="00FFFF00"/>
       <color rgb="0000B0F0"/>
       <color rgb="00000000"/>
       <color rgb="008EA9DB"/>
-      <color rgb="00FFFF00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1759,10 +1735,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL18"/>
+  <dimension ref="A1:AL10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="12"/>
@@ -1779,7 +1755,7 @@
     <col min="10" max="10" width="19.847619047619" style="27" customWidth="1"/>
     <col min="11" max="11" width="13.5714285714286" style="27" customWidth="1"/>
     <col min="12" max="12" width="11.2857142857143" style="27" customWidth="1"/>
-    <col min="13" max="13" width="16.1238095238095" style="27" customWidth="1"/>
+    <col min="13" max="13" width="12.1428571428571" style="27" customWidth="1"/>
     <col min="14" max="14" width="20.1333333333333" style="27" customWidth="1"/>
     <col min="15" max="15" width="13.4285714285714" style="27" customWidth="1"/>
     <col min="16" max="16" width="11.4285714285714" style="27" customWidth="1"/>
@@ -1898,41 +1874,41 @@
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43" t="s">
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="46" t="s">
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="46"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
     </row>
     <row r="4" s="24" customFormat="1" ht="20.1" customHeight="1" spans="1:38">
       <c r="A4" s="30"/>
@@ -1944,49 +1920,49 @@
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="47" t="s">
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47" t="s">
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47" t="s">
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47" t="s">
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47" t="s">
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="47" t="s">
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="47" t="s">
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="AK4" s="47"/>
-      <c r="AL4" s="47"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
     </row>
     <row r="5" s="25" customFormat="1" ht="20" customHeight="1" spans="1:38">
       <c r="A5" s="23" t="s">
@@ -2019,13 +1995,13 @@
       <c r="J5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="K5" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="44" t="s">
+      <c r="M5" s="42" t="s">
         <v>25</v>
       </c>
       <c r="N5" s="32" t="s">
@@ -2117,196 +2093,197 @@
       <c r="D6" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="36" t="s">
         <v>54</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38" t="s">
+      <c r="G6" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="H6" s="36">
+        <v>30</v>
+      </c>
+      <c r="I6" s="36" t="s">
         <v>57</v>
       </c>
+      <c r="J6" s="36" t="s">
+        <v>58</v>
+      </c>
       <c r="K6" s="35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="N6" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="O6" s="38" t="s">
+      <c r="N6" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="38" t="s">
+      <c r="O6" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="38" t="s">
+      <c r="P6" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="48"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="48"/>
-      <c r="AH6" s="48"/>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="48"/>
-      <c r="AK6" s="48"/>
-      <c r="AL6" s="48"/>
+      <c r="Q6" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="S6" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="T6" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="33"/>
+      <c r="AH6" s="33"/>
+      <c r="AI6" s="33"/>
+      <c r="AJ6" s="33"/>
+      <c r="AK6" s="33"/>
+      <c r="AL6" s="33"/>
     </row>
     <row r="7" s="26" customFormat="1" ht="24" customHeight="1" spans="1:17">
-      <c r="A7" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
+      <c r="A7" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
     </row>
     <row r="8" s="26" customFormat="1" ht="33" customHeight="1" spans="1:32">
-      <c r="A8" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
+      <c r="A8" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
     </row>
     <row r="9" s="26" customFormat="1" ht="33" customHeight="1" spans="1:32">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
     </row>
     <row r="10" s="26" customFormat="1" ht="51" customHeight="1" spans="1:32">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="40"/>
-    </row>
-    <row r="16" ht="14.25" spans="5:5">
-      <c r="E16" s="41"/>
-    </row>
-    <row r="17" ht="14.25" spans="5:5">
-      <c r="E17" s="41"/>
-    </row>
-    <row r="18" ht="14.25" spans="5:5">
-      <c r="E18" s="41"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2321,32 +2298,32 @@
     <mergeCell ref="AG4:AI4"/>
     <mergeCell ref="AJ4:AL4"/>
     <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="A8:AF10"/>
     <mergeCell ref="A3:I4"/>
     <mergeCell ref="J3:M4"/>
     <mergeCell ref="N3:Q4"/>
-    <mergeCell ref="A8:AF10"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6">
       <formula1>"山东省,山东省济南市,山东省淄博市,山东省枣庄市,山东省东营市,山东省烟台市,山东省潍坊市,山东省济宁市,山东省泰安市,山东省威海市,山东省日照市,山东省滨州市,山东省德州市,山东省聊城市,山东省临沂市,山东省菏泽市"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6">
-      <formula1>"初中以下学历,初中及同等学历,高中及同等学历,大专,本科,硕士,博士"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
       <formula1>"男,女"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6">
+      <formula1>"代理合同,劳动合同,劳务派遣,非全日制用工"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 S6 V6 Y6 AB6 AE6 AH6 AK6">
       <formula1>"身份证,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6">
+      <formula1>"初中以下学历,初中及同等学历,高中及同等学历,大专,本科,硕士,博士"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6">
       <formula1>"广东,北京,天津,河北,山西,内蒙古,辽宁,吉林,黑龙江,上海,江苏,浙江,安徽,福建,江西,山东,河南,湖北,湖南,广西,海南,重庆,四川,贵州,云南,西藏,陕西,甘肃,青海,宁夏,新疆,台湾,香港,澳门,外籍或其他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6">
       <formula1>"个险营销,银保,团险,电销,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6">
-      <formula1>"代理合同,劳动合同,劳务派遣,非全日制用工"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -2376,7 +2353,7 @@
   <sheetData>
     <row r="1" ht="51" customHeight="1" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2384,16 +2361,16 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -2407,7 +2384,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -2419,7 +2396,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -2431,7 +2408,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:4">
@@ -2443,7 +2420,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:4">
@@ -2455,7 +2432,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="29.25" customHeight="1" spans="1:4">
@@ -2467,7 +2444,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -2479,7 +2456,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="64.5" customHeight="1" spans="1:4">
@@ -2491,7 +2468,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="78" customHeight="1" spans="1:4">
@@ -2505,7 +2482,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
@@ -2517,7 +2494,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:4">
@@ -2529,12 +2506,12 @@
         <v>24</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="18" customHeight="1" spans="1:4">
       <c r="A14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="8">
         <v>12</v>
@@ -2543,7 +2520,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="18" customHeight="1" spans="1:4">
@@ -2562,10 +2539,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="34.5" customHeight="1" spans="1:4">
@@ -2577,7 +2554,7 @@
         <v>28</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="34.5" customHeight="1" spans="1:4">
@@ -2586,10 +2563,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="78" customHeight="1" spans="1:6">
@@ -2598,34 +2575,34 @@
         <v>17</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="133.5" customHeight="1" spans="1:4">
       <c r="A20" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="90.75" customHeight="1" spans="1:5">
       <c r="A21" s="9"/>
       <c r="B21" s="23" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E21" s="21"/>
     </row>
